--- a/docs/odh/shr-core-Method-extension.xlsx
+++ b/docs/odh/shr-core-Method-extension.xlsx
@@ -193,7 +193,7 @@
     <t>Source of the definition for the extension code - a logical name or a URL.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Method-extension"/&gt;</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Method-extension"/&gt;</t>
   </si>
   <si>
     <t>Extension.valueCodeableConcept</t>
@@ -358,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
